--- a/01-data/input_YahooFin.xlsx
+++ b/01-data/input_YahooFin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2811"/>
+  <dimension ref="A1:J2810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95949,40 +95949,6 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="2811">
-      <c r="A2811" t="inlineStr">
-        <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
-      <c r="B2811" t="n">
-        <v>176.75</v>
-      </c>
-      <c r="C2811" t="n">
-        <v>178.7299957275391</v>
-      </c>
-      <c r="D2811" t="n">
-        <v>176.0700073242188</v>
-      </c>
-      <c r="E2811" t="n">
-        <v>178.2200012207031</v>
-      </c>
-      <c r="F2811" t="n">
-        <v>31956200</v>
-      </c>
-      <c r="G2811" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2811" t="n">
-        <v>13.10999965667725</v>
-      </c>
-      <c r="J2811" t="n">
-        <v>5.33</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/01-data/input_YahooFin.xlsx
+++ b/01-data/input_YahooFin.xlsx
@@ -70884,7 +70884,7 @@
         <v>207.6000061035156</v>
       </c>
       <c r="F2072" t="n">
-        <v>1034000</v>
+        <v>1034500</v>
       </c>
       <c r="G2072" t="n">
         <v>0</v>

--- a/01-data/input_YahooFin.xlsx
+++ b/01-data/input_YahooFin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2072"/>
+  <dimension ref="A1:J2073"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70899,6 +70899,40 @@
         <v>38989.828125</v>
       </c>
     </row>
+    <row r="2073">
+      <c r="A2073" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B2073" t="n">
+        <v>203.9499969482422</v>
+      </c>
+      <c r="C2073" t="n">
+        <v>205.2299957275391</v>
+      </c>
+      <c r="D2073" t="n">
+        <v>193.4700012207031</v>
+      </c>
+      <c r="E2073" t="n">
+        <v>196.3300018310547</v>
+      </c>
+      <c r="F2073" t="n">
+        <v>1700600</v>
+      </c>
+      <c r="G2073" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2073" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2073" t="n">
+        <v>14.46000003814697</v>
+      </c>
+      <c r="J2073" t="n">
+        <v>38585.19140625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/01-data/input_YahooFin.xlsx
+++ b/01-data/input_YahooFin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2073"/>
+  <dimension ref="A1:J2074"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70918,7 +70918,7 @@
         <v>196.3300018310547</v>
       </c>
       <c r="F2073" t="n">
-        <v>1700600</v>
+        <v>1702300</v>
       </c>
       <c r="G2073" t="n">
         <v>0</v>
@@ -70931,6 +70931,40 @@
       </c>
       <c r="J2073" t="n">
         <v>38585.19140625</v>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B2074" t="n">
+        <v>199.9400024414062</v>
+      </c>
+      <c r="C2074" t="n">
+        <v>200.7100067138672</v>
+      </c>
+      <c r="D2074" t="n">
+        <v>194.1349945068359</v>
+      </c>
+      <c r="E2074" t="n">
+        <v>198.1399993896484</v>
+      </c>
+      <c r="F2074" t="n">
+        <v>1062301</v>
+      </c>
+      <c r="G2074" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2074" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2074" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J2074" t="n">
+        <v>38661.05078125</v>
       </c>
     </row>
   </sheetData>
